--- a/PRACTICAL TASKS/05 TEST 25.01.2026.xlsx
+++ b/PRACTICAL TASKS/05 TEST 25.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc4b4fee7e3d8e21/Desktop/Hetvi Github/Data-Analytics/PRACTICAL TASKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6424E20D-2867-4ED3-B59F-A49400FBE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5076E11B-B851-4E7E-84EA-C3FCC7CF5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AC82CDA-3813-48D0-B325-6B64D1A33EF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3AC82CDA-3813-48D0-B325-6B64D1A33EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,31 +216,34 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,47 +307,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -657,119 +679,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91778454-F2B9-413E-8C72-34AB0FF9FEF0}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>LEFT(A2,FIND("-",A2)-1)</f>
         <v>ELEC</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="str">
+      <c r="C2" s="8" t="str">
+        <f>MID(A2,FIND("-",A2)+1,4)</f>
+        <v>1023</v>
+      </c>
+      <c r="D2" s="8" t="str">
         <f>RIGHT(A2,2)</f>
         <v>US</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="8" t="str">
         <f t="shared" ref="B3:B6" si="0">LEFT(A3,FIND("-",A3)-1)</f>
         <v>FASH</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7" t="str">
-        <f t="shared" ref="D3:D6" si="1">RIGHT(A3,2)</f>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C6" si="1">MID(A3,FIND("-",A3)+1,4)</f>
+        <v>2045</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D6" si="2">RIGHT(A3,2)</f>
         <v>UK</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>TOYS</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="str">
+      <c r="C4" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>3098</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>IN</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FOOD</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="str">
+      <c r="C5" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>4512</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="1"/>
+        <v>5679</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
     </row>
@@ -787,147 +824,147 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <f>TRIM(A2)</f>
         <v>john DOE</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <f>UPPER(A2)</f>
         <v>JOHN DOE</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <f>PROPER(A2)</f>
         <v>John Doe</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B6" si="0">TRIM(A3)</f>
         <v>mary jane</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C6" si="1">UPPER(A3)</f>
         <v>MARY JANE</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D6" si="2">PROPER(A3)</f>
         <v>Mary Jane</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>robert smith</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ROBERT SMITH</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Robert Smith</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lisa Ann</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>LISA ANN</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Lisa Ann</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>david BROWN</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>DAVID BROWN</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>David Brown</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -941,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FACAF7-10AC-4987-ABF4-055E5F8B6B53}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,137 +989,137 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,90 +1134,135 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="1" t="str">
+        <f>LEFT(A2,3)</f>
+        <v>INV</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>MID(A2,5,6)</f>
+        <v>202301</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>RIGHT(A2,2)</f>
+        <v>US</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="T3" s="5" t="s">
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B6" si="0">LEFT(A3,3)</f>
+        <v>INV</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C6" si="1">MID(A3,5,6)</f>
+        <v>202302</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D6" si="2">RIGHT(A3,2)</f>
+        <v>UK</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INV</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>202303</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IN</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INV</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>202304</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AU</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INV</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>202305</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>US</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1195,18 +1277,18 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
@@ -1220,68 +1302,98 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:25" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="8" t="str">
+        <f>TRIM(SUBSTITUTE(A2,"-",""))</f>
+        <v>+1 9876543210</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>LEFT(B2,FIND(" ",B2)-1)</f>
+        <v>+1</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:25" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B6" si="0">TRIM(SUBSTITUTE(A3,"-",""))</f>
+        <v>+44 1234567890</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C6" si="1">LEFT(B3,FIND(" ",B3)-1)</f>
+        <v>+44</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="S4" s="5" t="s">
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>+91 9876543210</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>+91</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="S4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>+61 412345678</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>+61</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="B6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>+49 1512345678</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>+49</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
